--- a/Excel-Assessment (1).xlsx
+++ b/Excel-Assessment (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamrot/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C9887B-5B9A-5A43-9D80-60D8805B39B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B723423E-7683-424F-9CC3-5D0A3C8508C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
+    <workbookView xWindow="0" yWindow="2240" windowWidth="28800" windowHeight="12940" xr2:uid="{953B05E5-DDFD-C748-8195-189FAFDAC1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem1-Questions" sheetId="3" r:id="rId1"/>
@@ -2950,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005FD504-60A2-8B4C-A5BA-446C94CBEA13}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -37849,7 +37849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949AA1C7-B5A7-D644-8FE2-83A79C9C7042}">
   <dimension ref="C1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
